--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/instrument-units-alternate.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/instrument-units-alternate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A746C1F-AC9D-4688-9865-C5DD27D41A95}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB89644-863A-49BC-92D6-AD41FBB96115}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" tabRatio="861" xr2:uid="{F99566B2-EC23-42D5-8C4D-932A9FF4467A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="861" xr2:uid="{F99566B2-EC23-42D5-8C4D-932A9FF4467A}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="35" r:id="rId1"/>
@@ -34,13 +34,12 @@
     <sheet name="Detector_Settings" sheetId="57" r:id="rId19"/>
     <sheet name="Lignt_Path" sheetId="56" r:id="rId20"/>
     <sheet name="Binary_Data" sheetId="46" r:id="rId21"/>
-    <sheet name="Unit" sheetId="51" r:id="rId22"/>
-    <sheet name="size" sheetId="62" r:id="rId23"/>
-    <sheet name="distance" sheetId="61" r:id="rId24"/>
-    <sheet name="frequency" sheetId="59" r:id="rId25"/>
-    <sheet name="voltage" sheetId="58" r:id="rId26"/>
-    <sheet name="waveLength" sheetId="60" r:id="rId27"/>
-    <sheet name="power" sheetId="50" r:id="rId28"/>
+    <sheet name="size" sheetId="62" r:id="rId22"/>
+    <sheet name="distance" sheetId="61" r:id="rId23"/>
+    <sheet name="frequency" sheetId="59" r:id="rId24"/>
+    <sheet name="voltage" sheetId="58" r:id="rId25"/>
+    <sheet name="waveLength" sheetId="60" r:id="rId26"/>
+    <sheet name="power" sheetId="50" r:id="rId27"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="436">
   <si>
     <t/>
   </si>
@@ -330,9 +329,6 @@
     <t>:data</t>
   </si>
   <si>
-    <t>xsd:long</t>
-  </si>
-  <si>
     <t>xsd:base64Binary</t>
   </si>
   <si>
@@ -1169,33 +1165,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>UO:0000008</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>unit</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>UO:0000046</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000299</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000106</t>
-  </si>
-  <si>
-    <t>UO:0000218</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>qudt:unit</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1205,30 +1178,6 @@
   </si>
   <si>
     <t>unit:nm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>base unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:baseUnit</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1271,31 +1220,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>接頭辞</t>
-    <rPh sb="0" eb="3">
-      <t>セットウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本単位</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:um</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"micro-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>距離</t>
     <rPh sb="0" eb="2">
       <t>キョリ</t>
@@ -1450,106 +1374,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>unit:kHz</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"kilo-heltz"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000294</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:pm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"pico-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000302</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:mm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"milli-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000297</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:dW</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000114</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"deci-watt"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000296</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:kV</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"kilo-volt"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000019</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:cm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"centi-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000298</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:hHz</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"hecto-heltz"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000287</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:daV</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"deca-volt"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000295</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>acquisitionMode</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1558,10 +1382,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/unit/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/filterType/</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1706,6 +1526,84 @@
   </si>
   <si>
     <t>correction:UV</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xsd:nonNegativeLong</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength:cm</t>
+  </si>
+  <si>
+    <t>unitLength:mm</t>
+  </si>
+  <si>
+    <t>unitFrequency:kHz</t>
+  </si>
+  <si>
+    <t>unitFrequency:hHz</t>
+  </si>
+  <si>
+    <t>unitElectricPotential:kV</t>
+  </si>
+  <si>
+    <t>unitElectricPotential:daV</t>
+  </si>
+  <si>
+    <t>unitLength:pm</t>
+  </si>
+  <si>
+    <t>unitLength:um</t>
+  </si>
+  <si>
+    <t>unitLength:angstrom</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitPower:W</t>
+  </si>
+  <si>
+    <t>unitPower:dW</t>
+  </si>
+  <si>
+    <t>unitLength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitPower</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitPower#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitElectricPotential</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitElectricPotential#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitFrequency</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitFrequency#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitTime#</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1713,7 +1611,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1742,13 +1640,6 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1782,7 +1673,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1801,16 +1692,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2134,18 +2016,18 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="96.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2153,7 +2035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2161,7 +2043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2169,7 +2051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2177,7 +2059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2185,7 +2067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2193,236 +2075,268 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B28" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B29" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="B32" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>322</v>
+        <v>426</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>412</v>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -2437,50 +2351,50 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="1"/>
+    <col min="4" max="4" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2493,86 +2407,86 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2587,46 +2501,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="1"/>
+    <col min="9" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2638,134 +2552,134 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="H4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2780,40 +2694,40 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="22.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="25.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2824,125 +2738,125 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="G5" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="G6" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="G7" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="G8" s="1">
         <v>0.7</v>
@@ -2960,34 +2874,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="4" max="4" width="27.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2996,50 +2910,50 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>429</v>
+        <v>386</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>430</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -3054,28 +2968,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>418</v>
+        <v>375</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -3090,10 +3004,10 @@
         <v>61</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3109,13 +3023,13 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
@@ -3130,10 +3044,10 @@
         <v>63</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3141,7 +3055,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
@@ -3156,45 +3070,45 @@
         <v>66</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3209,21 +3123,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3231,10 +3145,10 @@
         <v>67</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>419</v>
+        <v>376</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>75</v>
@@ -3267,7 +3181,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3285,49 +3199,49 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>420</v>
+        <v>377</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3335,19 +3249,19 @@
         <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>39</v>
@@ -3365,30 +3279,30 @@
         <v>39</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>427</v>
+        <v>384</v>
       </c>
       <c r="D5" t="s">
-        <v>421</v>
+        <v>378</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -3406,10 +3320,10 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3425,22 +3339,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3448,31 +3362,31 @@
         <v>83</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3486,37 +3400,37 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3524,57 +3438,57 @@
         <v>82</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>453</v>
+        <v>410</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="F5" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3589,42 +3503,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3632,12 +3546,12 @@
         <v>86</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -3655,34 +3569,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="4" max="4" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3691,47 +3605,47 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="E5" s="1">
         <v>0.8</v>
@@ -3749,46 +3663,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="1"/>
+    <col min="4" max="4" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3800,42 +3714,42 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>43</v>
@@ -3844,21 +3758,21 @@
         <v>43</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>424</v>
+        <v>381</v>
       </c>
       <c r="D5" t="s">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="E5" s="1">
         <v>1.2</v>
@@ -3867,10 +3781,10 @@
         <v>0.7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -3885,16 +3799,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3902,13 +3816,13 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3916,19 +3830,19 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3936,101 +3850,101 @@
         <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4045,30 +3959,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4076,41 +3990,41 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4125,17 +4039,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4152,7 +4066,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4161,7 +4075,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -4176,7 +4090,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -4184,18 +4098,18 @@
         <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>92</v>
+        <v>414</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C5" s="1">
         <v>32</v>
@@ -4204,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4214,311 +4128,96 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8086EC75-07D4-44D4-B6DF-F3C8419175A9}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>388</v>
-      </c>
-      <c r="C5" t="s">
-        <v>389</v>
-      </c>
-      <c r="D5" t="s">
-        <v>390</v>
-      </c>
-      <c r="E5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C6" t="s">
-        <v>386</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="E6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="D7" t="s">
-        <v>393</v>
-      </c>
-      <c r="E7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>394</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="D8" t="s">
-        <v>397</v>
-      </c>
-      <c r="E8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>398</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="D10" t="s">
-        <v>403</v>
-      </c>
-      <c r="E10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>345</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="D11" t="s">
-        <v>325</v>
-      </c>
-      <c r="E11" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>404</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="D12" t="s">
-        <v>406</v>
-      </c>
-      <c r="E12" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>407</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="D13" t="s">
-        <v>409</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486F2A65-B8BB-490D-A830-7E81FF4684A8}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D5" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="C6">
         <v>1.5E-3</v>
       </c>
-      <c r="D6" t="s">
-        <v>391</v>
+      <c r="D6" s="6" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -4528,85 +4227,186 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1D26C5-F49A-4925-94AA-AE21BE3840B6}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="C5">
         <v>0.02</v>
       </c>
-      <c r="D5" t="s">
-        <v>391</v>
+      <c r="D5" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E65B29-C365-4B98-954E-E0CEB9F96311}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C5">
+        <v>1200</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -4616,95 +4416,96 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E65B29-C365-4B98-954E-E0CEB9F96311}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05927945-84DF-481E-AF57-4A563B11C64A}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>319</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>455</v>
+        <v>343</v>
       </c>
       <c r="C5">
-        <v>1200</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="C6">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>404</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -4714,392 +4515,295 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05927945-84DF-481E-AF57-4A563B11C64A}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C5">
-        <v>120</v>
-      </c>
-      <c r="D5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFB8DEB-195F-4833-873B-F6E76BF9721E}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="C5">
         <v>590500</v>
       </c>
-      <c r="D5" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D5" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="C6">
         <v>350000</v>
       </c>
-      <c r="D6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D6" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="C7">
         <v>560000</v>
       </c>
-      <c r="D7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D7" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="C8">
         <v>562000</v>
       </c>
-      <c r="D8" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D8" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="C9">
         <v>463000</v>
       </c>
-      <c r="D9" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D9" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="C10">
         <v>450000</v>
       </c>
-      <c r="D10" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D10" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="C11">
         <v>630000</v>
       </c>
-      <c r="D11" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D11" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C12">
         <v>633000</v>
       </c>
-      <c r="D12" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D12" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="C13">
         <v>535000</v>
       </c>
-      <c r="D13" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D13" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="C14">
         <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="C15">
         <v>250</v>
       </c>
       <c r="D15" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="C16">
         <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="C17">
         <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="C18">
         <v>200</v>
       </c>
       <c r="D18" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="C19">
         <v>300</v>
       </c>
       <c r="D19" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="C20">
         <v>230</v>
       </c>
       <c r="D20" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="C21">
         <v>340</v>
       </c>
       <c r="D21" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="C22">
         <v>488600</v>
       </c>
-      <c r="D22" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D22" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="C23">
         <v>610500</v>
       </c>
-      <c r="D23" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D23" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="C24">
         <v>0.51</v>
       </c>
-      <c r="D24" t="s">
-        <v>345</v>
+      <c r="D24" s="6" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -5109,95 +4813,95 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355EA86A-E18C-476E-AF36-B96E82FDF5B6}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C5">
         <v>0.2</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D5" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>394</v>
+      <c r="D6" s="6" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -5212,18 +4916,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5231,19 +4935,19 @@
         <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5253,25 +4957,25 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -5279,33 +4983,33 @@
         <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>450</v>
+        <v>407</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5320,15 +5024,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5339,7 +5043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5348,7 +5052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -5357,7 +5061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -5368,44 +5072,44 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -5420,24 +5124,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5445,19 +5149,19 @@
         <v>29</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>31</v>
@@ -5466,16 +5170,16 @@
         <v>32</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5491,25 +5195,25 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>34</v>
@@ -5518,16 +5222,16 @@
         <v>35</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -5535,19 +5239,19 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>38</v>
@@ -5556,48 +5260,48 @@
         <v>40</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="H5" t="s">
-        <v>198</v>
-      </c>
-      <c r="I5" t="s">
-        <v>187</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -5612,58 +5316,58 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>445</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -5678,46 +5382,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="1"/>
+    <col min="4" max="4" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5729,75 +5433,75 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G5" t="s">
         <v>196</v>
       </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="G5" t="s">
-        <v>197</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -5812,19 +5516,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5832,22 +5536,22 @@
         <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5858,28 +5562,28 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -5887,39 +5591,39 @@
         <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>424</v>
+        <v>381</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>444</v>
+        <v>401</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>417</v>
+        <v>374</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -5934,23 +5638,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5958,13 +5662,13 @@
         <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>45</v>
@@ -5985,7 +5689,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -6000,19 +5704,19 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>51</v>
@@ -6033,7 +5737,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -6041,16 +5745,16 @@
         <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>43</v>
@@ -6068,33 +5772,33 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>442</v>
+        <v>399</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>443</v>
+        <v>400</v>
       </c>
       <c r="F5" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="G5" s="1">
         <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>456</v>
+        <v>413</v>
       </c>
       <c r="I5" s="1">
         <v>1.2</v>
       </c>
       <c r="J5" t="s">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="K5" s="1">
         <v>60.12</v>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/instrument-units-alternate.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/instrument-units-alternate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB89644-863A-49BC-92D6-AD41FBB96115}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4020341-6455-49CC-A298-C34AA0E08122}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="861" xr2:uid="{F99566B2-EC23-42D5-8C4D-932A9FF4467A}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="466">
   <si>
     <t/>
   </si>
@@ -431,22 +431,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[objective:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[detector:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[microscope:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[laser:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>model</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -507,10 +491,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:image0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>instrument</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -575,10 +555,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[channel:0.1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
@@ -600,38 +576,6 @@
     <t>:Pump</t>
   </si>
   <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument/image/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[arc:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[filterSet:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[filter:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[filter:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[filter:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[filter:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[dichroic:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Dichroic</t>
   </si>
   <si>
@@ -706,10 +650,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pump:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Arc</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -869,10 +809,6 @@
     <t>:FilterType</t>
   </si>
   <si>
-    <t>[transmittanceRange:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Transmittance Range</t>
   </si>
   <si>
@@ -906,18 +842,6 @@
     <t>:cutIn</t>
   </si>
   <si>
-    <t>[transmittanceRange:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[transmittanceRange:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[transmittanceRange:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>filterType:bandPass</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -933,10 +857,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[bindata:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[color:-2147483648]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -956,10 +876,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[lightSourceSettings:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>detector settings</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1036,18 +952,6 @@
   </si>
   <si>
     <t>:Binning</t>
-  </si>
-  <si>
-    <t>[lightPath:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[detectorSettings:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[lightPath:0]</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>binning</t>
@@ -1254,356 +1158,572 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>[power:0.2W]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[waveLength:590500pm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[power:3dW]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[voltage:120kV]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[distance:0.02mm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[waveLength:350000pm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[waveLength:450000pm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[waveLength:100angstrom]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[waveLength:200angstrom]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[waveLength:560000pm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[waveLength:562000pm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[waveLength:463000pm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[waveLength:630000pm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[waveLength:633000pm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[waveLength:535000pm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[waveLength:250angstrom]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[waveLength:110angstrom]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[waveLength:210angstrom]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[waveLength:300angstrom]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[waveLength:230angstrom]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[waveLength:340angstrom]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[size:1cm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[waveLength:488600pm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[waveLength:610500pm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[size:0.0015mm]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[waveLength:0.51um]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[frequency:32hHz]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[voltage:12daV]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>acquisitionMode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/plate/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/screen/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/reagent/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>detectorType:CCD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixel type</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixelType:uint8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dimensionOrder:xyczt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>binning:twoXTwo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Detector:0</t>
+  </si>
+  <si>
+    <t>LightSource:0</t>
+  </si>
+  <si>
+    <t>Channel:0.1</t>
+  </si>
+  <si>
+    <t>Pixels:0.0</t>
+  </si>
+  <si>
+    <t>Image:0</t>
+  </si>
+  <si>
+    <t>Dichroic:0</t>
+  </si>
+  <si>
+    <t>Standard Mk3</t>
+  </si>
+  <si>
+    <t>Filter:0</t>
+  </si>
+  <si>
+    <t>Model1</t>
+  </si>
+  <si>
+    <t>Disc A</t>
+  </si>
+  <si>
+    <t>Filter:1</t>
+  </si>
+  <si>
+    <t>Delux Mk4</t>
+  </si>
+  <si>
+    <t>Filter:2</t>
+  </si>
+  <si>
+    <t>Delux Mk5</t>
+  </si>
+  <si>
+    <t>Filter:3</t>
+  </si>
+  <si>
+    <t>Delux Mk6</t>
+  </si>
+  <si>
+    <t>FilterSet:0</t>
+  </si>
+  <si>
+    <t>Lot174-A</t>
+  </si>
+  <si>
+    <t>Objective:0</t>
+  </si>
+  <si>
+    <t>60xUV-Air</t>
+  </si>
+  <si>
+    <t>Standard CCD Mk2</t>
+  </si>
+  <si>
+    <t>LightSource:1</t>
+  </si>
+  <si>
+    <t>Arc60</t>
+  </si>
+  <si>
+    <t>A123456</t>
+  </si>
+  <si>
+    <t>Ruby60</t>
+  </si>
+  <si>
+    <t>A654321</t>
+  </si>
+  <si>
+    <t>Lab Mk3</t>
+  </si>
+  <si>
+    <t>L3-1234</t>
+  </si>
+  <si>
+    <t>Instrument:0</t>
+  </si>
+  <si>
+    <t>:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>immersion:air</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[frequency:1200kHz]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>correction:UV</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xsd:nonNegativeLong</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength:cm</t>
+  </si>
+  <si>
+    <t>unitLength:mm</t>
+  </si>
+  <si>
+    <t>unitFrequency:kHz</t>
+  </si>
+  <si>
+    <t>unitFrequency:hHz</t>
+  </si>
+  <si>
+    <t>unitElectricPotential:kV</t>
+  </si>
+  <si>
+    <t>unitElectricPotential:daV</t>
+  </si>
+  <si>
+    <t>unitLength:pm</t>
+  </si>
+  <si>
+    <t>unitLength:um</t>
+  </si>
+  <si>
+    <t>unitLength:angstrom</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitPower:W</t>
+  </si>
+  <si>
+    <t>unitPower:dW</t>
+  </si>
+  <si>
+    <t>unitLength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitPower</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitPower#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitElectricPotential</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitElectricPotential#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitFrequency</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitFrequency#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitTime#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/image/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/instrument/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>microscope</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>laser</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pump</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>arc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>detector</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filterSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transmittanceRange</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dichroic</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lightSourceSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>detectorSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lightPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>filterType</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument/instrument/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[power:0.2W]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[waveLength:590500pm]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[power:3dW]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[voltage:120kV]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[distance:0.02mm]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[waveLength:350000pm]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[waveLength:450000pm]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[waveLength:100angstrom]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[waveLength:200angstrom]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[waveLength:560000pm]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[waveLength:562000pm]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[waveLength:463000pm]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[waveLength:630000pm]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[waveLength:633000pm]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[waveLength:535000pm]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[waveLength:250angstrom]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[waveLength:110angstrom]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[waveLength:210angstrom]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[waveLength:300angstrom]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[waveLength:230angstrom]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[waveLength:340angstrom]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[size:1cm]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[waveLength:488600pm]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[waveLength:610500pm]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[size:0.0015mm]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[waveLength:0.51um]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[frequency:32hHz]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[voltage:12daV]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>acquisitionMode</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/filterType/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/plate/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/screen/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/reagent/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>detectorType:CCD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Image</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>pixel type</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>pixelType:uint8</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>dimensionOrder:xyczt</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>binning:twoXTwo</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Detector:0</t>
-  </si>
-  <si>
-    <t>LightSource:0</t>
-  </si>
-  <si>
-    <t>Channel:0.1</t>
-  </si>
-  <si>
-    <t>Pixels:0.0</t>
-  </si>
-  <si>
-    <t>Image:0</t>
-  </si>
-  <si>
-    <t>Dichroic:0</t>
-  </si>
-  <si>
-    <t>Standard Mk3</t>
-  </si>
-  <si>
-    <t>Filter:0</t>
-  </si>
-  <si>
-    <t>Model1</t>
-  </si>
-  <si>
-    <t>Disc A</t>
-  </si>
-  <si>
-    <t>Filter:1</t>
-  </si>
-  <si>
-    <t>Delux Mk4</t>
-  </si>
-  <si>
-    <t>Filter:2</t>
-  </si>
-  <si>
-    <t>Delux Mk5</t>
-  </si>
-  <si>
-    <t>Filter:3</t>
-  </si>
-  <si>
-    <t>Delux Mk6</t>
-  </si>
-  <si>
-    <t>FilterSet:0</t>
-  </si>
-  <si>
-    <t>Lot174-A</t>
-  </si>
-  <si>
-    <t>Objective:0</t>
-  </si>
-  <si>
-    <t>60xUV-Air</t>
-  </si>
-  <si>
-    <t>Standard CCD Mk2</t>
-  </si>
-  <si>
-    <t>LightSource:1</t>
-  </si>
-  <si>
-    <t>Arc60</t>
-  </si>
-  <si>
-    <t>A123456</t>
-  </si>
-  <si>
-    <t>Ruby60</t>
-  </si>
-  <si>
-    <t>A654321</t>
-  </si>
-  <si>
-    <t>Lab Mk3</t>
-  </si>
-  <si>
-    <t>L3-1234</t>
-  </si>
-  <si>
-    <t>Instrument:0</t>
-  </si>
-  <si>
-    <t>:Color</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>immersion:air</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[frequency:1200kHz]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>correction:UV</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>xsd:nonNegativeLong</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unitLength:cm</t>
-  </si>
-  <si>
-    <t>unitLength:mm</t>
-  </si>
-  <si>
-    <t>unitFrequency:kHz</t>
-  </si>
-  <si>
-    <t>unitFrequency:hHz</t>
-  </si>
-  <si>
-    <t>unitElectricPotential:kV</t>
-  </si>
-  <si>
-    <t>unitElectricPotential:daV</t>
-  </si>
-  <si>
-    <t>unitLength:pm</t>
-  </si>
-  <si>
-    <t>unitLength:um</t>
-  </si>
-  <si>
-    <t>unitLength:angstrom</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unitPower:W</t>
-  </si>
-  <si>
-    <t>unitPower:dW</t>
-  </si>
-  <si>
-    <t>unitLength</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unitPower</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitPower#</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unitElectricPotential</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitElectricPotential#</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unitFrequency</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitFrequency#</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unitTime</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitTime#</t>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/FilterType#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/microscope/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/laser/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/pump/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/arc/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/detector/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/filterSet/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/filter/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/transmittanceRange/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/dichroic/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/pixels/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/channel/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/lightSourceSettings/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/detectorSettings/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/lightPath/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument-units-altermate/bindata/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>microscope:microscope0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>laser:laser0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>arc:arc0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>detector:detector0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objective:objective0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filterSet:filterSet0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filter:filter0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filter:filter1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filter:filter2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filter:filter3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dichroic:dichroic0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pump:pump0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transmittanceRange:transmittanceRange0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transmittanceRange:transmittanceRange1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transmittanceRange:transmittanceRange2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transmittanceRange:transmittanceRange3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel0.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lightSourceSettings:lightSourceSettings0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>detectorSettings:detectorSettings0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lightPath:lightPath0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objective</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2016,14 +2136,14 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="105.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2093,47 +2213,47 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>97</v>
@@ -2181,7 +2301,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>108</v>
@@ -2189,159 +2309,288 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>163</v>
+        <v>195</v>
+      </c>
+      <c r="B27" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>289</v>
+        <v>426</v>
       </c>
       <c r="B29" t="s">
-        <v>290</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>110</v>
+        <v>399</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>111</v>
+        <v>401</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>112</v>
+      <c r="A32" s="6" t="s">
+        <v>403</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
-        <v>140</v>
+      <c r="A33" s="6" t="s">
+        <v>405</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>339</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>426</v>
+        <v>109</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>428</v>
+        <v>110</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>429</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="6" t="s">
-        <v>430</v>
+      <c r="A37" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>431</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="6" t="s">
-        <v>432</v>
+      <c r="A38" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>433</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B39" s="1" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>435</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2354,14 +2603,14 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
@@ -2370,28 +2619,28 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -2416,22 +2665,22 @@
         <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -2439,13 +2688,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>117</v>
@@ -2454,39 +2703,39 @@
         <v>117</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>448</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>167</v>
+        <v>450</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>166</v>
+        <v>449</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>170</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -2504,12 +2753,12 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.69921875" style="1"/>
   </cols>
@@ -2519,25 +2768,25 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -2561,19 +2810,19 @@
         <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -2581,105 +2830,105 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>117</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>166</v>
+        <v>449</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>236</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>167</v>
+        <v>450</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>248</v>
+        <v>456</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>451</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>249</v>
+        <v>457</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>169</v>
+        <v>452</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>250</v>
+        <v>458</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2697,7 +2946,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
@@ -2709,22 +2958,22 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -2744,19 +2993,19 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -2764,19 +3013,19 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>43</v>
@@ -2784,19 +3033,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>236</v>
+        <v>455</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="G5" s="1">
         <v>0.3</v>
@@ -2804,19 +3053,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>248</v>
+        <v>456</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="G6" s="1">
         <v>0.8</v>
@@ -2824,19 +3073,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>249</v>
+        <v>457</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="G7" s="1">
         <v>0.5</v>
@@ -2844,19 +3093,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>250</v>
+        <v>458</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="G8" s="1">
         <v>0.7</v>
@@ -2877,7 +3126,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
@@ -2889,16 +3138,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -2919,10 +3168,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -2930,13 +3179,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>117</v>
@@ -2944,16 +3193,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>170</v>
+        <v>453</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -2986,7 +3235,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>113</v>
@@ -3004,7 +3253,7 @@
         <v>61</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -3044,7 +3293,7 @@
         <v>63</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -3070,27 +3319,27 @@
         <v>66</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>139</v>
+        <v>459</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>119</v>
@@ -3098,17 +3347,17 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3126,14 +3375,14 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3148,7 +3397,7 @@
         <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>75</v>
@@ -3208,37 +3457,37 @@
         <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>98</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -3255,13 +3504,13 @@
         <v>80</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>39</v>
@@ -3279,30 +3528,30 @@
         <v>39</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>459</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="D5" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -3320,10 +3569,10 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>156</v>
+        <v>460</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>255</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -3342,12 +3591,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
@@ -3368,22 +3617,22 @@
         <v>84</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -3412,22 +3661,22 @@
         <v>85</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -3441,54 +3690,54 @@
         <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>156</v>
+        <v>460</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>261</v>
+        <v>462</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>287</v>
+        <v>463</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>288</v>
+        <v>464</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -3516,10 +3765,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -3535,7 +3784,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -3551,7 +3800,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -3572,7 +3821,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
@@ -3584,7 +3833,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>113</v>
@@ -3593,7 +3842,7 @@
         <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3617,7 +3866,7 @@
         <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -3625,13 +3874,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>43</v>
@@ -3639,13 +3888,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>261</v>
+        <v>462</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="E5" s="1">
         <v>0.8</v>
@@ -3666,7 +3915,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
@@ -3681,25 +3930,25 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -3723,19 +3972,19 @@
         <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -3743,13 +3992,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>43</v>
@@ -3758,21 +4007,21 @@
         <v>43</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>287</v>
+        <v>463</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="D5" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="E5" s="1">
         <v>1.2</v>
@@ -3781,10 +4030,10 @@
         <v>0.7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3797,14 +4046,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C387734-4785-4809-ABB8-D3AE5D1EF48D}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3861,10 +4112,10 @@
         <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>122</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -3872,7 +4123,7 @@
         <v>119</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>123</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -3880,7 +4131,7 @@
         <v>119</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>164</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -3888,7 +4139,7 @@
         <v>119</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>121</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -3896,7 +4147,7 @@
         <v>119</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>120</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -3904,7 +4155,7 @@
         <v>119</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>165</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -3912,7 +4163,7 @@
         <v>119</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>166</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -3920,7 +4171,7 @@
         <v>119</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>167</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -3928,7 +4179,7 @@
         <v>119</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>168</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -3936,7 +4187,7 @@
         <v>119</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>169</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -3944,7 +4195,7 @@
         <v>119</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>170</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -3962,7 +4213,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.69921875" style="1"/>
@@ -3973,13 +4224,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3996,10 +4247,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -4007,24 +4258,24 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>286</v>
+        <v>464</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>168</v>
+        <v>451</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>169</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -4098,7 +4349,7 @@
         <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>37</v>
@@ -4109,7 +4360,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>255</v>
+        <v>461</v>
       </c>
       <c r="C5" s="1">
         <v>32</v>
@@ -4118,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4149,13 +4400,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4163,13 +4414,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -4178,10 +4429,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -4189,35 +4440,35 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="C6">
         <v>1.5E-3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -4249,13 +4500,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4263,13 +4514,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -4278,10 +4529,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -4289,24 +4540,24 @@
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="C5">
         <v>0.02</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -4338,13 +4589,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4352,13 +4603,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -4367,10 +4618,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -4378,35 +4629,35 @@
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="C5">
         <v>1200</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="C6">
         <v>32</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -4437,13 +4688,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4451,13 +4702,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -4466,10 +4717,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -4477,35 +4728,35 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="C5">
         <v>120</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -4537,13 +4788,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4551,13 +4802,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -4566,10 +4817,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -4577,233 +4828,233 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="C5">
         <v>590500</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="C6">
         <v>350000</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="C7">
         <v>560000</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="C8">
         <v>562000</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="C9">
         <v>463000</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="C10">
         <v>450000</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="C11">
         <v>630000</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="C12">
         <v>633000</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="C13">
         <v>535000</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="C14">
         <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="C15">
         <v>250</v>
       </c>
       <c r="D15" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="C16">
         <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="C17">
         <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="C18">
         <v>200</v>
       </c>
       <c r="D18" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="C19">
         <v>300</v>
       </c>
       <c r="D19" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="C20">
         <v>230</v>
       </c>
       <c r="D20" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="C21">
         <v>340</v>
       </c>
       <c r="D21" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="C22">
         <v>488600</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="C23">
         <v>610500</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="C24">
         <v>0.51</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -4835,13 +5086,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4850,10 +5101,10 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -4862,10 +5113,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -4873,35 +5124,35 @@
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="C5">
         <v>0.2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -4919,7 +5170,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
@@ -4935,16 +5186,16 @@
         <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -4963,16 +5214,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -4983,33 +5234,33 @@
         <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>443</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -5074,42 +5325,42 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -5127,7 +5378,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
@@ -5135,7 +5386,7 @@
     <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
@@ -5152,16 +5403,16 @@
         <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>31</v>
@@ -5170,13 +5421,13 @@
         <v>32</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -5204,16 +5455,16 @@
         <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>34</v>
@@ -5222,13 +5473,13 @@
         <v>35</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
@@ -5242,16 +5493,16 @@
         <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>38</v>
@@ -5260,48 +5511,48 @@
         <v>40</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>444</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="H5" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="I5" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>190</v>
+        <v>454</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -5319,7 +5570,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
@@ -5329,7 +5580,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>113</v>
@@ -5356,7 +5607,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>117</v>
@@ -5364,10 +5615,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>190</v>
+        <v>454</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -5385,7 +5636,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
@@ -5400,25 +5651,25 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -5442,19 +5693,19 @@
         <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -5462,13 +5713,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>117</v>
@@ -5477,31 +5728,31 @@
         <v>117</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="G5" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -5519,7 +5770,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
@@ -5539,16 +5790,16 @@
         <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -5571,16 +5822,16 @@
         <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -5594,36 +5845,36 @@
         <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>121</v>
+        <v>446</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -5641,8 +5892,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
@@ -5665,10 +5916,10 @@
         <v>113</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>45</v>
@@ -5713,10 +5964,10 @@
         <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>51</v>
@@ -5748,13 +5999,13 @@
         <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>43</v>
@@ -5774,31 +6025,31 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>447</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="F5" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="G5" s="1">
         <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="I5" s="1">
         <v>1.2</v>
       </c>
       <c r="J5" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="K5" s="1">
         <v>60.12</v>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/instrument-units-alternate.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/instrument-units-alternate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4020341-6455-49CC-A298-C34AA0E08122}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0599B54-D06B-4A39-90A2-88B70C441B15}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="861" xr2:uid="{F99566B2-EC23-42D5-8C4D-932A9FF4467A}"/>
   </bookViews>
@@ -51,10 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="466">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="469">
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
@@ -122,24 +119,15 @@
     <t>datatype</t>
   </si>
   <si>
-    <t>:Instrument</t>
-  </si>
-  <si>
     <t>rdf:langString</t>
   </si>
   <si>
     <t>Microscope</t>
   </si>
   <si>
-    <t>:Microscope</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>:Manufacturer</t>
-  </si>
-  <si>
     <t>Laser</t>
   </si>
   <si>
@@ -152,36 +140,15 @@
     <t>laser medium</t>
   </si>
   <si>
-    <t>:waveLength</t>
-  </si>
-  <si>
-    <t>:laserType</t>
-  </si>
-  <si>
-    <t>:laserMedium</t>
-  </si>
-  <si>
-    <t>:Laser</t>
-  </si>
-  <si>
     <t>xsd:boolean</t>
   </si>
   <si>
-    <t>:LaserType</t>
-  </si>
-  <si>
     <t>xsd:positiveInteger</t>
   </si>
   <si>
-    <t>:LaserMedium</t>
-  </si>
-  <si>
     <t>Detector</t>
   </si>
   <si>
-    <t>:Detector</t>
-  </si>
-  <si>
     <t>xsd:float</t>
   </si>
   <si>
@@ -206,51 +173,12 @@
     <t>calibrated maginification</t>
   </si>
   <si>
-    <t>:workingDistance</t>
-  </si>
-  <si>
-    <t>:nominalMagnification</t>
-  </si>
-  <si>
-    <t>:correction</t>
-  </si>
-  <si>
-    <t>:lensNA</t>
-  </si>
-  <si>
-    <t>:immersion</t>
-  </si>
-  <si>
-    <t>:calibratedMagnification</t>
-  </si>
-  <si>
-    <t>:Objective</t>
-  </si>
-  <si>
-    <t>:Correction</t>
-  </si>
-  <si>
-    <t>:Immersion</t>
-  </si>
-  <si>
     <t>pixels</t>
   </si>
   <si>
     <t>acquisition date</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
-    <t>:acquisitionDate</t>
-  </si>
-  <si>
-    <t>:Image</t>
-  </si>
-  <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>xsd:dateTime</t>
   </si>
   <si>
@@ -290,30 +218,12 @@
     <t>size y</t>
   </si>
   <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
-    <t>:PixelType</t>
-  </si>
-  <si>
-    <t>:BinData</t>
-  </si>
-  <si>
-    <t>:Channel</t>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
     <t>color</t>
   </si>
   <si>
-    <t>:color</t>
-  </si>
-  <si>
-    <t>:Color</t>
-  </si>
-  <si>
     <t>Binary Data</t>
   </si>
   <si>
@@ -323,12 +233,6 @@
     <t>data</t>
   </si>
   <si>
-    <t>:length</t>
-  </si>
-  <si>
-    <t>:data</t>
-  </si>
-  <si>
     <t>xsd:base64Binary</t>
   </si>
   <si>
@@ -415,18 +319,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:manufacturerSpec</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:string</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:ManufacturerSpec</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>instrument:instrument0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -435,10 +331,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:model</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:string</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -447,46 +339,18 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:serialNumber</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>microscope type</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:microscopeType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:MicroscopeType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>manufacturer</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:manufacturer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Manufacturer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>detector type</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:detectorType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DetectorType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>image:image0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -495,66 +359,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:instrument</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Instrument</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:float</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>physicalSizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>physicalSizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BinData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
@@ -573,15 +381,9 @@
     <t>Pump</t>
   </si>
   <si>
-    <t>:Pump</t>
-  </si>
-  <si>
     <t>Dichroic</t>
   </si>
   <si>
-    <t>:Dichroic</t>
-  </si>
-  <si>
     <t>microscopeType:inverted</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -614,10 +416,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:power</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>laserType</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -642,34 +440,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:pump</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Pump</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Arc</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:Arc</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>arc type</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:arcType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:ArcType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>arcType:Xe</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -730,24 +508,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:ExcitationFilter</t>
-  </si>
-  <si>
-    <t>:EmissionFilter</t>
-  </si>
-  <si>
-    <t>:FilterSet</t>
-  </si>
-  <si>
-    <t>:dichroic</t>
-  </si>
-  <si>
-    <t>:excitationFilter</t>
-  </si>
-  <si>
-    <t>:emissionFilter</t>
-  </si>
-  <si>
     <t>dichroic</t>
   </si>
   <si>
@@ -772,10 +532,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:lotNumber</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Filter</t>
   </si>
   <si>
@@ -788,27 +544,9 @@
     <t>filer type</t>
   </si>
   <si>
-    <t>:filterWheel</t>
-  </si>
-  <si>
-    <t>:transmittanceRange</t>
-  </si>
-  <si>
-    <t>:filterType</t>
-  </si>
-  <si>
-    <t>:Filter</t>
-  </si>
-  <si>
     <t>xsd:string</t>
   </si>
   <si>
-    <t>:TransmittanceRange</t>
-  </si>
-  <si>
-    <t>:FilterType</t>
-  </si>
-  <si>
     <t>Transmittance Range</t>
   </si>
   <si>
@@ -827,21 +565,6 @@
     <t>cut in</t>
   </si>
   <si>
-    <t>:cutOutTolerance</t>
-  </si>
-  <si>
-    <t>:cutInTolerance</t>
-  </si>
-  <si>
-    <t>:transmittance</t>
-  </si>
-  <si>
-    <t>:cutOut</t>
-  </si>
-  <si>
-    <t>:cutIn</t>
-  </si>
-  <si>
     <t>filterType:bandPass</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -865,17 +588,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:lightSourceSettings</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:LightSourceSettings</t>
-  </si>
-  <si>
-    <t>:LightSourceSettings</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>detector settings</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -884,37 +596,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:detectorSettings</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DetectorSettings</t>
-  </si>
-  <si>
-    <t>:DetectorSettings</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:lightPath</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:LightPath</t>
-  </si>
-  <si>
-    <t>:LightPath</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Light Source Settings</t>
   </si>
   <si>
     <t>attenuation</t>
   </si>
   <si>
-    <t>:attenuation</t>
-  </si>
-  <si>
     <t>Lignt Path</t>
   </si>
   <si>
@@ -936,24 +623,6 @@
     <t>gain</t>
   </si>
   <si>
-    <t>:binning</t>
-  </si>
-  <si>
-    <t>:voltage</t>
-  </si>
-  <si>
-    <t>:offset</t>
-  </si>
-  <si>
-    <t>:readOutRate</t>
-  </si>
-  <si>
-    <t>:gain</t>
-  </si>
-  <si>
-    <t>:Binning</t>
-  </si>
-  <si>
     <t>binning</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -965,30 +634,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:repetitionRate</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>repetition rate</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>wave length</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:waveLength</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>voltage</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:voltage</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>PATO:0001242</t>
   </si>
   <si>
@@ -1032,21 +685,11 @@
     <t>emission wavelength</t>
   </si>
   <si>
-    <t>:emissionWavelength</t>
-  </si>
-  <si>
     <t>excitation wavelength</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:excitationWavelength</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pinhole size</t>
-  </si>
-  <si>
-    <t>:pinholeSize</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -1302,10 +945,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pixelType:uint8</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1405,10 +1044,6 @@
     <t>Instrument:0</t>
   </si>
   <si>
-    <t>:Color</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>immersion:air</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1724,6 +1359,445 @@
   </si>
   <si>
     <t>objective</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Instrument</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:manufacturerSpec</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ManufacturerSpec</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Microscope</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:model</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:serialNumber</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:microscopeType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:MicroscopeType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Laser</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:power</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:laserType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LaserType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:laserMedium</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LaserMedium</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pump</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pump</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:repetitionRate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:wavelength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wavelength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pump</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Arc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:arcType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ArcType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PATO:0001024</t>
+  </si>
+  <si>
+    <t>English Attribution</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Detector</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:detectorType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DetectorType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:voltage</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Objective</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:workingDistance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:nominalMagnification</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:correction</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Correction</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:lensNA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:immersion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Immersion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:calibratedMagnification</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FilterSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:lotNumber</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:emissionFilter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:EmissionFilter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:excitationFilter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ExcitationFilter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dichroic</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Dichroic</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Filter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:filterWheel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:transmittanceRange</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:TransmittanceRange</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:filterType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FilterType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:cutIn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:cutOut</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:cutInTolerance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:cutOutTolerance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:transmittance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:instrument</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Instrument</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:lightSourceSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LightSourceSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:detectorSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DetectorSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:lightPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LightPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:emissionWavelength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:excitationWavelength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pinholeSize</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LightSourceSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:wavelength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:attenuation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DetectorSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binning</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Binning</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:gain</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:offset</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:readOutRate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:voltage</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LightPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:length</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:bigEndian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:data</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2149,442 +2223,442 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>310</v>
+        <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>311</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>276</v>
+        <v>174</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>277</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>279</v>
+        <v>177</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>278</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>308</v>
+        <v>203</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>313</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>309</v>
+        <v>204</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>312</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>343</v>
+        <v>238</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>342</v>
+        <v>237</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>171</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>265</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s">
-        <v>266</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>426</v>
+        <v>319</v>
       </c>
       <c r="B29" t="s">
-        <v>427</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>399</v>
+        <v>292</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>400</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>401</v>
+        <v>294</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>402</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
-        <v>403</v>
+        <v>296</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>404</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
-        <v>405</v>
+        <v>298</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>406</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>408</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>409</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>344</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>345</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>346</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>411</v>
+        <v>304</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>428</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>412</v>
+        <v>305</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>429</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>413</v>
+        <v>306</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>430</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>414</v>
+        <v>307</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>431</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>415</v>
+        <v>308</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>432</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>465</v>
+        <v>358</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>432</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>416</v>
+        <v>309</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>433</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>417</v>
+        <v>310</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>434</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>418</v>
+        <v>311</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>435</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>419</v>
+        <v>312</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>436</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>420</v>
+        <v>313</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>437</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>421</v>
+        <v>314</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>438</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>422</v>
+        <v>315</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>439</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>423</v>
+        <v>316</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>440</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>424</v>
+        <v>317</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>441</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>425</v>
+        <v>318</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>442</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2607,45 +2681,45 @@
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2658,84 +2732,84 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>368</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>121</v>
+        <v>364</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>209</v>
+        <v>402</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>201</v>
+        <v>403</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>200</v>
+        <v>405</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>199</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>198</v>
+        <v>401</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>130</v>
+        <v>368</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>197</v>
+        <v>404</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>196</v>
+        <v>406</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>158</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>448</v>
+        <v>341</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>370</v>
+        <v>264</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>360</v>
+        <v>254</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>371</v>
+        <v>265</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>450</v>
+        <v>343</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>449</v>
+        <v>342</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>453</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -2756,8 +2830,8 @@
     <col min="2" max="2" width="10.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.69921875" style="1"/>
@@ -2765,33 +2839,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2803,132 +2877,132 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>368</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>121</v>
+        <v>364</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>214</v>
+        <v>410</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>215</v>
+        <v>411</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>216</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>217</v>
+        <v>409</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>130</v>
+        <v>369</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>219</v>
+        <v>412</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>220</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>449</v>
+        <v>342</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>361</v>
+        <v>255</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>362</v>
+        <v>256</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>363</v>
+        <v>257</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>455</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>450</v>
+        <v>343</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>364</v>
+        <v>258</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>365</v>
+        <v>259</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>456</v>
+        <v>349</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>232</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>451</v>
+        <v>344</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>366</v>
+        <v>260</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>367</v>
+        <v>261</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>457</v>
+        <v>350</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>232</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>452</v>
+        <v>345</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>368</v>
+        <v>262</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>369</v>
+        <v>263</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>458</v>
+        <v>351</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>232</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2948,37 +3022,37 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="25.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>224</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2989,63 +3063,63 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>231</v>
+        <v>415</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>230</v>
+        <v>416</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>228</v>
+        <v>417</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>227</v>
+        <v>418</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>229</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>219</v>
+        <v>412</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>274</v>
+        <v>172</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>274</v>
+        <v>172</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>274</v>
+        <v>172</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>274</v>
+        <v>172</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>455</v>
+        <v>348</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>319</v>
+        <v>214</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>320</v>
+        <v>215</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>321</v>
+        <v>216</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>322</v>
+        <v>217</v>
       </c>
       <c r="G5" s="1">
         <v>0.3</v>
@@ -3053,19 +3127,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>456</v>
+        <v>349</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>323</v>
+        <v>218</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>329</v>
+        <v>224</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>332</v>
+        <v>227</v>
       </c>
       <c r="G6" s="1">
         <v>0.8</v>
@@ -3073,19 +3147,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>457</v>
+        <v>350</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>324</v>
+        <v>219</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>327</v>
+        <v>222</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>330</v>
+        <v>225</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>333</v>
+        <v>228</v>
       </c>
       <c r="G7" s="1">
         <v>0.5</v>
@@ -3093,19 +3167,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>458</v>
+        <v>351</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>325</v>
+        <v>220</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>328</v>
+        <v>223</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>331</v>
+        <v>226</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>334</v>
+        <v>229</v>
       </c>
       <c r="G8" s="1">
         <v>0.7</v>
@@ -3128,31 +3202,31 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3161,48 +3235,48 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>368</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>121</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>158</v>
+        <v>408</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>130</v>
+        <v>369</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>453</v>
+        <v>346</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>359</v>
+        <v>253</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>360</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3221,10 +3295,10 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -3232,41 +3306,41 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>348</v>
+        <v>243</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3274,90 +3348,90 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>421</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>63</v>
+        <v>423</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>136</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>65</v>
+        <v>422</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>137</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>358</v>
+        <v>252</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>235</v>
+        <v>153</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>459</v>
+        <v>352</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3370,7 +3444,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C0CBC2-4968-4C18-8159-99B4929EB641}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3388,51 +3464,51 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>349</v>
+        <v>244</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3450,108 +3526,108 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>350</v>
+        <v>426</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>98</v>
+        <v>428</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>139</v>
+        <v>430</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>140</v>
+        <v>431</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>141</v>
+        <v>432</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>142</v>
+        <v>433</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>143</v>
+        <v>434</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>144</v>
+        <v>435</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>145</v>
+        <v>436</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>146</v>
+        <v>437</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>147</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>422</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>148</v>
+        <v>429</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>283</v>
+        <v>181</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>283</v>
+        <v>181</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>149</v>
+        <v>438</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>150</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>459</v>
+        <v>352</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>357</v>
+        <v>251</v>
       </c>
       <c r="D5" t="s">
-        <v>351</v>
+        <v>245</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>352</v>
+        <v>246</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>335</v>
+        <v>230</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>335</v>
+        <v>230</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -3569,10 +3645,10 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>460</v>
+        <v>353</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>461</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3592,52 +3668,52 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>237</v>
+        <v>155</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>241</v>
+        <v>156</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>242</v>
+        <v>157</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>285</v>
+        <v>183</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>287</v>
+        <v>184</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>289</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3651,93 +3727,93 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>442</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>238</v>
+        <v>444</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>243</v>
+        <v>446</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>246</v>
+        <v>448</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>286</v>
+        <v>450</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>288</v>
+        <v>451</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>290</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>441</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>383</v>
+        <v>443</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>240</v>
+        <v>445</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>245</v>
+        <v>447</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>248</v>
+        <v>449</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>274</v>
+        <v>172</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>274</v>
+        <v>172</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>283</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>460</v>
+        <v>353</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>463</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>464</v>
+        <v>357</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>336</v>
+        <v>231</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>337</v>
+        <v>232</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>338</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3762,45 +3838,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>453</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>236</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -3823,31 +3899,31 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>249</v>
+        <v>158</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>250</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3856,45 +3932,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>455</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>251</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>239</v>
+        <v>454</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>274</v>
+        <v>172</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>462</v>
+        <v>355</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>355</v>
+        <v>249</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>339</v>
+        <v>234</v>
       </c>
       <c r="E5" s="1">
         <v>0.8</v>
@@ -3917,8 +3993,9 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
@@ -3927,33 +4004,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>258</v>
+        <v>166</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>256</v>
+        <v>164</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>257</v>
+        <v>165</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3965,63 +4042,63 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>259</v>
+        <v>458</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>263</v>
+        <v>460</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>261</v>
+        <v>461</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>262</v>
+        <v>462</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>260</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>244</v>
+        <v>457</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>264</v>
+        <v>459</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>293</v>
+        <v>188</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>275</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>463</v>
+        <v>356</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>354</v>
+        <v>248</v>
       </c>
       <c r="D5" t="s">
-        <v>353</v>
+        <v>247</v>
       </c>
       <c r="E5" s="1">
         <v>1.2</v>
@@ -4030,10 +4107,10 @@
         <v>0.7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>340</v>
+        <v>235</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>341</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4046,9 +4123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C387734-4785-4809-ABB8-D3AE5D1EF48D}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4061,21 +4136,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4083,119 +4158,119 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>116</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>360</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>118</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>382</v>
+        <v>276</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>443</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>444</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>445</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>446</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>447</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>448</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>449</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>450</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>451</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>452</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>453</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -4214,28 +4289,28 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4243,39 +4318,39 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>201</v>
+        <v>403</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>200</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>247</v>
+        <v>464</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>197</v>
+        <v>404</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>196</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>464</v>
+        <v>357</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>451</v>
+        <v>344</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>452</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -4292,34 +4367,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4328,39 +4403,39 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>90</v>
+        <v>466</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>91</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>81</v>
+        <v>465</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>387</v>
+        <v>280</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>461</v>
+        <v>354</v>
       </c>
       <c r="C5" s="1">
         <v>32</v>
@@ -4369,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4397,78 +4472,78 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>284</v>
+        <v>182</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>296</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>307</v>
+        <v>202</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>301</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>297</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>283</v>
+        <v>181</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>298</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>335</v>
+        <v>230</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>388</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>338</v>
+        <v>233</v>
       </c>
       <c r="C6">
         <v>1.5E-3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4497,67 +4572,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>281</v>
+        <v>179</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>296</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>306</v>
+        <v>201</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>301</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>297</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>282</v>
+        <v>180</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>298</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>318</v>
+        <v>213</v>
       </c>
       <c r="C5">
         <v>0.02</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>389</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4586,78 +4661,78 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>292</v>
+        <v>187</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>296</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>305</v>
+        <v>200</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>301</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>297</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>294</v>
+        <v>189</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>298</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>385</v>
+        <v>278</v>
       </c>
       <c r="C5">
         <v>1200</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>390</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>340</v>
+        <v>235</v>
       </c>
       <c r="C6">
         <v>32</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>391</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -4685,78 +4760,78 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>291</v>
+        <v>186</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>296</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>304</v>
+        <v>199</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>301</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>297</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>298</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>317</v>
+        <v>212</v>
       </c>
       <c r="C5">
         <v>120</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>392</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>341</v>
+        <v>236</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>393</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4785,276 +4860,276 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>299</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>303</v>
+        <v>198</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>301</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>297</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>274</v>
+        <v>172</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>298</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>315</v>
+        <v>210</v>
       </c>
       <c r="C5">
         <v>590500</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>394</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>319</v>
+        <v>214</v>
       </c>
       <c r="C6">
         <v>350000</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>394</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>323</v>
+        <v>218</v>
       </c>
       <c r="C7">
         <v>560000</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>394</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>324</v>
+        <v>219</v>
       </c>
       <c r="C8">
         <v>562000</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>394</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>325</v>
+        <v>220</v>
       </c>
       <c r="C9">
         <v>463000</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>394</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>320</v>
+        <v>215</v>
       </c>
       <c r="C10">
         <v>450000</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>394</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>326</v>
+        <v>221</v>
       </c>
       <c r="C11">
         <v>630000</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>394</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>327</v>
+        <v>222</v>
       </c>
       <c r="C12">
         <v>633000</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>394</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>328</v>
+        <v>223</v>
       </c>
       <c r="C13">
         <v>535000</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>394</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>321</v>
+        <v>216</v>
       </c>
       <c r="C14">
         <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>396</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>329</v>
+        <v>224</v>
       </c>
       <c r="C15">
         <v>250</v>
       </c>
       <c r="D15" t="s">
-        <v>396</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>330</v>
+        <v>225</v>
       </c>
       <c r="C16">
         <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>396</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>331</v>
+        <v>226</v>
       </c>
       <c r="C17">
         <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>396</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>322</v>
+        <v>217</v>
       </c>
       <c r="C18">
         <v>200</v>
       </c>
       <c r="D18" t="s">
-        <v>396</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>332</v>
+        <v>227</v>
       </c>
       <c r="C19">
         <v>300</v>
       </c>
       <c r="D19" t="s">
-        <v>396</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>333</v>
+        <v>228</v>
       </c>
       <c r="C20">
         <v>230</v>
       </c>
       <c r="D20" t="s">
-        <v>396</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>334</v>
+        <v>229</v>
       </c>
       <c r="C21">
         <v>340</v>
       </c>
       <c r="D21" t="s">
-        <v>396</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>336</v>
+        <v>231</v>
       </c>
       <c r="C22">
         <v>488600</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>394</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>337</v>
+        <v>232</v>
       </c>
       <c r="C23">
         <v>610500</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>394</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>339</v>
+        <v>234</v>
       </c>
       <c r="C24">
         <v>0.51</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>395</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -5083,76 +5158,76 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>299</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>301</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>297</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>267</v>
+        <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>298</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>314</v>
+        <v>209</v>
       </c>
       <c r="C5">
         <v>0.2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>397</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>316</v>
+        <v>211</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>398</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5165,14 +5240,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C00101-2088-4A7A-8EAB-B2F74BE6EE07}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -5180,27 +5257,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5210,57 +5287,57 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>121</v>
+        <v>364</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>124</v>
+        <v>365</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>126</v>
+        <v>366</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>129</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>363</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>127</v>
+        <v>367</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>130</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>443</v>
+        <v>336</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>380</v>
+        <v>274</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>381</v>
+        <v>275</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -5277,7 +5354,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
@@ -5285,82 +5362,82 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5380,59 +5457,59 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>270</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5448,111 +5525,111 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>368</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>121</v>
+        <v>364</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>124</v>
+        <v>365</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>167</v>
+        <v>372</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>34</v>
+        <v>373</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>35</v>
+        <v>375</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>174</v>
+        <v>377</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>268</v>
+        <v>379</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>271</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>371</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>130</v>
+        <v>369</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>267</v>
+        <v>169</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>40</v>
+        <v>376</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>175</v>
+        <v>378</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>293</v>
+        <v>188</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>274</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>444</v>
+        <v>337</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>355</v>
+        <v>249</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>378</v>
+        <v>272</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>379</v>
+        <v>273</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>314</v>
+        <v>209</v>
       </c>
       <c r="H5" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="I5" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>454</v>
+        <v>347</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>385</v>
+        <v>278</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>315</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -5577,48 +5654,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>156</v>
+        <v>382</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>454</v>
+        <v>347</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>375</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -5636,45 +5713,45 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>387</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5686,73 +5763,75 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>368</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>121</v>
+        <v>364</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>124</v>
+        <v>365</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>179</v>
+        <v>384</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>167</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>177</v>
+        <v>383</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>130</v>
+        <v>369</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H4" s="3"/>
+        <v>385</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>445</v>
+        <v>338</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>375</v>
+        <v>269</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>376</v>
+        <v>270</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>377</v>
+        <v>271</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>316</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -5773,38 +5852,38 @@
     <col min="2" max="2" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>272</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5815,66 +5894,66 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>368</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>121</v>
+        <v>364</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>132</v>
+        <v>389</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>273</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>388</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>130</v>
+        <v>369</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>275</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>446</v>
+        <v>339</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>354</v>
+        <v>248</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>374</v>
+        <v>268</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>347</v>
+        <v>242</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>317</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -5895,54 +5974,54 @@
     <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5957,99 +6036,99 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>368</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>121</v>
+        <v>364</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>51</v>
+        <v>393</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>52</v>
+        <v>394</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>53</v>
+        <v>395</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>54</v>
+        <v>397</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>55</v>
+        <v>398</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>56</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>392</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>130</v>
+        <v>369</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>280</v>
+        <v>178</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>58</v>
+        <v>396</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>59</v>
+        <v>399</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>447</v>
+        <v>340</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>372</v>
+        <v>266</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>373</v>
+        <v>267</v>
       </c>
       <c r="F5" t="s">
-        <v>318</v>
+        <v>213</v>
       </c>
       <c r="G5" s="1">
         <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>386</v>
+        <v>279</v>
       </c>
       <c r="I5" s="1">
         <v>1.2</v>
       </c>
       <c r="J5" t="s">
-        <v>384</v>
+        <v>277</v>
       </c>
       <c r="K5" s="1">
         <v>60.12</v>
